--- a/solar/台北.xlsx
+++ b/solar/台北.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CEE985-78B1-4FE8-A0E1-A2AB08F158CE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B882A2B-F475-4118-BD1E-A045E9D19A18}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="67">
   <si>
     <t>//ψ = fi</t>
   </si>
@@ -282,21 +282,6 @@
   </si>
   <si>
     <t>一年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加總</t>
-  </si>
-  <si>
-    <t>平均值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>計算加總</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>計數</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3607,6 +3592,430 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'R = 0 ,變B一年總照射量'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>一年</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'R = 0 ,變B一年總照射量'!$B$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'R = 0 ,變B一年總照射量'!$B$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>31.6921</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.712499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.726900000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.735199999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.737400000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.733499999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.723500000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.7074</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.685300000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.6571</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.622800000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F59-4830-9F13-FE77607CB305}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1013358543"/>
+        <c:axId val="884636655"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1013358543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="884636655"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="884636655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>太陽照射之有效量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>相對量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1013358543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:overlay val="0"/>
       <c:spPr>
@@ -7811,95 +8220,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>四季中，每日太陽照射於太陽能板有效量隨時間之變化</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>於台北之緯度，太陽能板沿地面之傾斜角於</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>45</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>度，沿南方之方位角於零度</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-TW"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -7920,7 +8241,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -7929,7 +8250,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -8037,7 +8371,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -8046,7 +8380,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -8154,7 +8501,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -8163,7 +8510,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -8271,7 +8631,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -8280,7 +8640,18 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -8381,6 +8752,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="620306784"/>
         <c:axId val="619654576"/>
@@ -8392,6 +8764,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -8399,7 +8785,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -8412,11 +8798,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>X:</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:rPr lang="zh-TW"/>
                   <a:t>小時</a:t>
                 </a:r>
               </a:p>
@@ -8435,7 +8817,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -8473,7 +8855,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -8502,20 +8884,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -8523,7 +8891,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -8536,13 +8904,22 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>太陽照射有效量</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>Y:</a:t>
+                  <a:t>(</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>度</a:t>
+                  <a:t>相對量</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -8559,7 +8936,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -8581,8 +8958,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -8619,7 +9002,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8655,7 +9038,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -10644,6 +11027,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -14021,7 +14444,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14537,7 +14960,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15053,7 +15476,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15569,7 +15992,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16085,7 +16508,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16601,7 +17024,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17113,6 +17536,527 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -18634,6 +19578,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="圖表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32F09053-E38E-44B8-AF5B-713443CB7573}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -20382,8 +21362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E6B701-432D-43B5-9DCB-49F4E0DE63D7}">
   <dimension ref="A1:BG93"/>
   <sheetViews>
-    <sheetView topLeftCell="Z11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AT37" sqref="AT37"/>
+    <sheetView topLeftCell="S17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -26522,8 +27502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DACD1B9-8DE2-49C4-B5BD-01C53422343D}">
   <dimension ref="A1:BT93"/>
   <sheetViews>
-    <sheetView topLeftCell="U4" workbookViewId="0">
-      <selection activeCell="AC24" sqref="AC24"/>
+    <sheetView topLeftCell="AC10" workbookViewId="0">
+      <selection activeCell="AG35" sqref="AG35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -33111,7 +34091,7 @@
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -34374,8 +35354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F37F29C-9C02-4B0C-9152-84C1FBCFEC0D}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="R54" sqref="R54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/solar/台北.xlsx
+++ b/solar/台北.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B882A2B-F475-4118-BD1E-A045E9D19A18}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9312D6-7B2E-431C-BB8A-D274A6632947}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="72">
   <si>
     <t>//ψ = fi</t>
   </si>
@@ -282,6 +282,26 @@
   </si>
   <si>
     <t>一年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1260,6 +1280,857 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'B = 45 四季照射曲線'!$T$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>春</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'B = 45 四季照射曲線'!$U$60:$AE$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'B = 45 四季照射曲線'!$U$61:$AE$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18.668211148018521</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.245057369501453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.794097944388326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.035661664198216</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.067823810926114</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.437735027199878</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.067823810926114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59.035661664198216</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.794097944388326</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.245057369501453</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.668211148018521</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6CF3-4CCE-93BE-C3EBE44B6870}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'B = 45 四季照射曲線'!$T$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>夏</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'B = 45 四季照射曲線'!$U$60:$AE$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'B = 45 四季照射曲線'!$U$62:$AE$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>22.487398381395931</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.6811783159662</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.086596859154042</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.623905065090561</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.210742989115673</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.275907569548053</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.210742989115673</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62.623905065090561</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49.086596859154042</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.6811783159662</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.487398381395931</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6CF3-4CCE-93BE-C3EBE44B6870}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'B = 45 四季照射曲線'!$T$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>秋</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'B = 45 四季照射曲線'!$U$60:$AE$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'B = 45 四季照射曲線'!$U$63:$AE$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>13.497412099466679</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.871097356998835</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.768451057603215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.602005254518858</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.95697239008684</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.841734583625993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.95697239008684</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.602005254518858</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.768451057603215</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.871097356998835</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.497412099466679</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6CF3-4CCE-93BE-C3EBE44B6870}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'B = 45 四季照射曲線'!$T$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>冬</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'B = 45 四季照射曲線'!$U$60:$AE$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'B = 45 四季照射曲線'!$U$64:$AE$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.7919452750084761</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.450602205140894</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.961355438046791</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.66536223501739</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.607906648852442</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.751754389640894</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.607906648852442</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.66536223501739</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.961355438046791</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.450602205140894</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7919452750084761</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6CF3-4CCE-93BE-C3EBE44B6870}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="129054655"/>
+        <c:axId val="135061423"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="129054655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>小時</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="135061423"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="135061423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>度</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="129054655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -1998,7 +2869,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -2528,7 +3399,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -3040,7 +3911,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -3578,7 +4449,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -4002,7 +4873,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -11067,6 +11938,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -11904,7 +12815,7 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -11915,7 +12826,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -11938,18 +12849,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -11961,7 +12872,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -11969,11 +12880,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -12005,12 +12916,12 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -12020,12 +12931,12 @@
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -12037,13 +12948,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -12055,12 +12966,12 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -12070,18 +12981,19 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -12103,15 +13015,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -12126,15 +13036,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -12145,17 +13055,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -12164,10 +13073,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -12183,21 +13092,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -12216,17 +13119,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -12235,17 +13137,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -12254,17 +13155,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -12285,7 +13185,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -12293,7 +13193,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -12306,6 +13206,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -12313,10 +13224,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -12337,7 +13248,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -12346,14 +13257,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -12367,7 +13278,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -12383,8 +13294,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -12400,6 +13311,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -12407,20 +13329,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -12528,6 +13444,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -12538,6 +13459,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -12569,6 +13495,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -13929,7 +14858,7 @@
 </file>
 
 <file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -14037,11 +14966,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -14052,11 +14976,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -14088,9 +15007,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -14445,6 +15361,522 @@
 </file>
 
 <file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -19419,6 +20851,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="圖表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF04C94-2D76-4B50-AF41-70A16FD6BE55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -27502,8 +28970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DACD1B9-8DE2-49C4-B5BD-01C53422343D}">
   <dimension ref="A1:BT93"/>
   <sheetViews>
-    <sheetView topLeftCell="AC10" workbookViewId="0">
-      <selection activeCell="AG35" sqref="AG35"/>
+    <sheetView tabSelected="1" topLeftCell="G49" workbookViewId="0">
+      <selection activeCell="AH64" sqref="AH64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -33272,7 +34740,7 @@
         <v>7.1221923873710319E-2</v>
       </c>
     </row>
-    <row r="49" spans="14:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="14:31" x14ac:dyDescent="0.25">
       <c r="N49" t="s">
         <v>21</v>
       </c>
@@ -33286,7 +34754,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="14:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="14:31" x14ac:dyDescent="0.25">
       <c r="N50">
         <f t="shared" ref="N50:N60" si="20">ASIN(O2)</f>
         <v>0.32582174999043373</v>
@@ -33304,7 +34772,7 @@
         <v>-84.646919246315122</v>
       </c>
     </row>
-    <row r="51" spans="14:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="14:31" x14ac:dyDescent="0.25">
       <c r="N51">
         <f t="shared" si="20"/>
         <v>0.56278241859226208</v>
@@ -33322,7 +34790,7 @@
         <v>-89.244595214168129</v>
       </c>
     </row>
-    <row r="52" spans="14:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="14:31" x14ac:dyDescent="0.25">
       <c r="N52">
         <f t="shared" si="20"/>
         <v>0.79925778711034334</v>
@@ -33340,7 +34808,7 @@
         <v>-82.034302830740089</v>
       </c>
     </row>
-    <row r="53" spans="14:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="14:31" x14ac:dyDescent="0.25">
       <c r="N53">
         <f t="shared" si="20"/>
         <v>1.030366672133654</v>
@@ -33358,7 +34826,7 @@
         <v>-71.622726240962393</v>
       </c>
     </row>
-    <row r="54" spans="14:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="14:31" x14ac:dyDescent="0.25">
       <c r="N54">
         <f t="shared" si="20"/>
         <v>1.2403675177278848</v>
@@ -33376,7 +34844,7 @@
         <v>-51.168885997772051</v>
       </c>
     </row>
-    <row r="55" spans="14:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="14:31" x14ac:dyDescent="0.25">
       <c r="N55">
         <f t="shared" si="20"/>
         <v>1.3515434415115786</v>
@@ -33394,7 +34862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="14:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="14:31" x14ac:dyDescent="0.25">
       <c r="N56">
         <f t="shared" si="20"/>
         <v>1.2403675177278848</v>
@@ -33412,7 +34880,7 @@
         <v>51.168885997772051</v>
       </c>
     </row>
-    <row r="57" spans="14:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="14:31" x14ac:dyDescent="0.25">
       <c r="N57">
         <f t="shared" si="20"/>
         <v>1.030366672133654</v>
@@ -33430,7 +34898,7 @@
         <v>71.622726240962379</v>
       </c>
     </row>
-    <row r="58" spans="14:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="14:31" x14ac:dyDescent="0.25">
       <c r="N58">
         <f t="shared" si="20"/>
         <v>0.79925778711034334</v>
@@ -33448,7 +34916,7 @@
         <v>82.034302830740089</v>
       </c>
     </row>
-    <row r="59" spans="14:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="14:31" x14ac:dyDescent="0.25">
       <c r="N59">
         <f t="shared" si="20"/>
         <v>0.56278241859226208</v>
@@ -33466,7 +34934,7 @@
         <v>89.244595214168129</v>
       </c>
     </row>
-    <row r="60" spans="14:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="14:31" x14ac:dyDescent="0.25">
       <c r="N60">
         <f t="shared" si="20"/>
         <v>0.32582174999043373</v>
@@ -33483,8 +34951,44 @@
         <f t="shared" si="23"/>
         <v>84.646919246315122</v>
       </c>
+      <c r="T60" t="s">
+        <v>71</v>
+      </c>
+      <c r="U60">
+        <v>7</v>
+      </c>
+      <c r="V60">
+        <v>8</v>
+      </c>
+      <c r="W60">
+        <v>9</v>
+      </c>
+      <c r="X60">
+        <v>10</v>
+      </c>
+      <c r="Y60">
+        <v>11</v>
+      </c>
+      <c r="Z60">
+        <v>12</v>
+      </c>
+      <c r="AA60">
+        <v>13</v>
+      </c>
+      <c r="AB60">
+        <v>14</v>
+      </c>
+      <c r="AC60">
+        <v>15</v>
+      </c>
+      <c r="AD60">
+        <v>16</v>
+      </c>
+      <c r="AE60">
+        <v>17</v>
+      </c>
     </row>
-    <row r="61" spans="14:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="14:31" x14ac:dyDescent="0.25">
       <c r="N61">
         <f t="shared" ref="N61:N79" si="24">ASIN(O13)</f>
         <v>0.3924791419630026</v>
@@ -33501,8 +35005,55 @@
         <f t="shared" si="23"/>
         <v>-73.807819582323717</v>
       </c>
+      <c r="T61" t="s">
+        <v>67</v>
+      </c>
+      <c r="U61">
+        <f>O50</f>
+        <v>18.668211148018521</v>
+      </c>
+      <c r="V61">
+        <f>O51</f>
+        <v>32.245057369501453</v>
+      </c>
+      <c r="W61">
+        <f>O52</f>
+        <v>45.794097944388326</v>
+      </c>
+      <c r="X61">
+        <f>O53</f>
+        <v>59.035661664198216</v>
+      </c>
+      <c r="Y61">
+        <f>O54</f>
+        <v>71.067823810926114</v>
+      </c>
+      <c r="Z61">
+        <f>O55</f>
+        <v>77.437735027199878</v>
+      </c>
+      <c r="AA61">
+        <f>O56</f>
+        <v>71.067823810926114</v>
+      </c>
+      <c r="AB61">
+        <f>O57</f>
+        <v>59.035661664198216</v>
+      </c>
+      <c r="AC61">
+        <f>O58</f>
+        <v>45.794097944388326</v>
+      </c>
+      <c r="AD61">
+        <f>O59</f>
+        <v>32.245057369501453</v>
+      </c>
+      <c r="AE61">
+        <f>O60</f>
+        <v>18.668211148018521</v>
+      </c>
     </row>
-    <row r="62" spans="14:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="14:31" x14ac:dyDescent="0.25">
       <c r="N62">
         <f t="shared" si="24"/>
         <v>0.62275404260481571</v>
@@ -33519,8 +35070,55 @@
         <f t="shared" si="23"/>
         <v>-78.350015910510677</v>
       </c>
+      <c r="T62" t="s">
+        <v>68</v>
+      </c>
+      <c r="U62">
+        <f>O61</f>
+        <v>22.487398381395931</v>
+      </c>
+      <c r="V62">
+        <f>O62</f>
+        <v>35.6811783159662</v>
+      </c>
+      <c r="W62">
+        <f>O63</f>
+        <v>49.086596859154042</v>
+      </c>
+      <c r="X62">
+        <f>O64</f>
+        <v>62.623905065090561</v>
+      </c>
+      <c r="Y62">
+        <f>O65</f>
+        <v>76.210742989115673</v>
+      </c>
+      <c r="Z62">
+        <f>O66</f>
+        <v>88.275907569548053</v>
+      </c>
+      <c r="AA62">
+        <f>O67</f>
+        <v>76.210742989115673</v>
+      </c>
+      <c r="AB62">
+        <f>O68</f>
+        <v>62.623905065090561</v>
+      </c>
+      <c r="AC62">
+        <f>O69</f>
+        <v>49.086596859154042</v>
+      </c>
+      <c r="AD62">
+        <f>O70</f>
+        <v>35.6811783159662</v>
+      </c>
+      <c r="AE62">
+        <f>O71</f>
+        <v>22.487398381395931</v>
+      </c>
     </row>
-    <row r="63" spans="14:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="14:31" x14ac:dyDescent="0.25">
       <c r="N63">
         <f t="shared" si="24"/>
         <v>0.85672273379134523</v>
@@ -33537,8 +35135,55 @@
         <f t="shared" si="23"/>
         <v>-82.664336482504282</v>
       </c>
+      <c r="T63" t="s">
+        <v>69</v>
+      </c>
+      <c r="U63">
+        <f>O72</f>
+        <v>13.497412099466679</v>
+      </c>
+      <c r="V63">
+        <f>O73</f>
+        <v>26.871097356998835</v>
+      </c>
+      <c r="W63">
+        <f>O74</f>
+        <v>39.768451057603215</v>
+      </c>
+      <c r="X63">
+        <f>O75</f>
+        <v>51.602005254518858</v>
+      </c>
+      <c r="Y63">
+        <f>O76</f>
+        <v>60.95697239008684</v>
+      </c>
+      <c r="Z63">
+        <f>O77</f>
+        <v>64.841734583625993</v>
+      </c>
+      <c r="AA63">
+        <f>O78</f>
+        <v>60.95697239008684</v>
+      </c>
+      <c r="AB63">
+        <f>O79</f>
+        <v>51.602005254518858</v>
+      </c>
+      <c r="AC63">
+        <f>O80</f>
+        <v>39.768451057603215</v>
+      </c>
+      <c r="AD63">
+        <f>O81</f>
+        <v>26.871097356998835</v>
+      </c>
+      <c r="AE63">
+        <f>O82</f>
+        <v>13.497412099466679</v>
+      </c>
     </row>
-    <row r="64" spans="14:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="14:31" x14ac:dyDescent="0.25">
       <c r="N64">
         <f t="shared" si="24"/>
         <v>1.092993333842184</v>
@@ -33554,6 +35199,53 @@
       <c r="R64">
         <f t="shared" si="23"/>
         <v>-87.267009052551231</v>
+      </c>
+      <c r="T64" t="s">
+        <v>70</v>
+      </c>
+      <c r="U64">
+        <f>O83</f>
+        <v>2.7919452750084761</v>
+      </c>
+      <c r="V64">
+        <f>O84</f>
+        <v>14.450602205140894</v>
+      </c>
+      <c r="W64">
+        <f>O85</f>
+        <v>24.961355438046791</v>
+      </c>
+      <c r="X64">
+        <f>O86</f>
+        <v>33.66536223501739</v>
+      </c>
+      <c r="Y64">
+        <f>O87</f>
+        <v>39.607906648852442</v>
+      </c>
+      <c r="Z64">
+        <f>O88</f>
+        <v>41.751754389640894</v>
+      </c>
+      <c r="AA64">
+        <f>O89</f>
+        <v>39.607906648852442</v>
+      </c>
+      <c r="AB64">
+        <f>O90</f>
+        <v>33.66536223501739</v>
+      </c>
+      <c r="AC64">
+        <f>O91</f>
+        <v>24.961355438046791</v>
+      </c>
+      <c r="AD64">
+        <f>O92</f>
+        <v>14.450602205140894</v>
+      </c>
+      <c r="AE64">
+        <f>O93</f>
+        <v>2.7919452750084761</v>
       </c>
     </row>
     <row r="65" spans="14:18" x14ac:dyDescent="0.25">
@@ -35354,7 +37046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F37F29C-9C02-4B0C-9152-84C1FBCFEC0D}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>

--- a/solar/台北.xlsx
+++ b/solar/台北.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9312D6-7B2E-431C-BB8A-D274A6632947}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3805E2-4C64-4DC3-9E14-FBD4087FFE64}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28970,7 +28970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DACD1B9-8DE2-49C4-B5BD-01C53422343D}">
   <dimension ref="A1:BT93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G49" workbookViewId="0">
+    <sheetView topLeftCell="G49" workbookViewId="0">
       <selection activeCell="AH64" sqref="AH64"/>
     </sheetView>
   </sheetViews>
@@ -37044,10 +37044,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F37F29C-9C02-4B0C-9152-84C1FBCFEC0D}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -37281,6 +37281,14 @@
       </c>
       <c r="L8" s="2">
         <v>31.622800000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="2">
+        <v>2698.82</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2883.65</v>
       </c>
     </row>
   </sheetData>
